--- a/HSU.xlsx
+++ b/HSU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="270">
   <si>
     <t>ticker</t>
   </si>
@@ -791,6 +791,39 @@
   </si>
   <si>
     <t>2016-07-21</t>
+  </si>
+  <si>
+    <t>2016-07-22</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2016-07-26</t>
+  </si>
+  <si>
+    <t>2016-07-27</t>
+  </si>
+  <si>
+    <t>2016-07-28</t>
+  </si>
+  <si>
+    <t>2016-07-29</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-03</t>
+  </si>
+  <si>
+    <t>2016-08-04</t>
+  </si>
+  <si>
+    <t>2016-08-05</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6970,6 +7003,259 @@
         <v>54553.97</v>
       </c>
     </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>259</v>
+      </c>
+      <c r="D254">
+        <v>54418.99</v>
+      </c>
+      <c r="E254">
+        <v>54239.19</v>
+      </c>
+      <c r="F254">
+        <v>54944.13</v>
+      </c>
+      <c r="G254">
+        <v>54875.94</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>260</v>
+      </c>
+      <c r="D255">
+        <v>55250.63</v>
+      </c>
+      <c r="E255">
+        <v>54553.34</v>
+      </c>
+      <c r="F255">
+        <v>55250.63</v>
+      </c>
+      <c r="G255">
+        <v>54963.15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>261</v>
+      </c>
+      <c r="D256">
+        <v>55159.2</v>
+      </c>
+      <c r="E256">
+        <v>54910.83</v>
+      </c>
+      <c r="F256">
+        <v>55679.63</v>
+      </c>
+      <c r="G256">
+        <v>55605.53</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>262</v>
+      </c>
+      <c r="D257">
+        <v>55726.03</v>
+      </c>
+      <c r="E257">
+        <v>54500.31</v>
+      </c>
+      <c r="F257">
+        <v>55806.77</v>
+      </c>
+      <c r="G257">
+        <v>55177.32</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>263</v>
+      </c>
+      <c r="D258">
+        <v>55037.09</v>
+      </c>
+      <c r="E258">
+        <v>54816.52</v>
+      </c>
+      <c r="F258">
+        <v>55177.32</v>
+      </c>
+      <c r="G258">
+        <v>55015.23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>264</v>
+      </c>
+      <c r="D259">
+        <v>54793</v>
+      </c>
+      <c r="E259">
+        <v>54470.56</v>
+      </c>
+      <c r="F259">
+        <v>55015.23</v>
+      </c>
+      <c r="G259">
+        <v>54840.68</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>265</v>
+      </c>
+      <c r="D260">
+        <v>54988.03</v>
+      </c>
+      <c r="E260">
+        <v>54840.68</v>
+      </c>
+      <c r="F260">
+        <v>55841.19</v>
+      </c>
+      <c r="G260">
+        <v>55679.46</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>266</v>
+      </c>
+      <c r="D261">
+        <v>54792.3</v>
+      </c>
+      <c r="E261">
+        <v>54369.31</v>
+      </c>
+      <c r="F261">
+        <v>55679.46</v>
+      </c>
+      <c r="G261">
+        <v>54472.23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>267</v>
+      </c>
+      <c r="D262">
+        <v>54743.56</v>
+      </c>
+      <c r="E262">
+        <v>54233.54</v>
+      </c>
+      <c r="F262">
+        <v>54755.44</v>
+      </c>
+      <c r="G262">
+        <v>54377.85</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>268</v>
+      </c>
+      <c r="D263">
+        <v>54611.05</v>
+      </c>
+      <c r="E263">
+        <v>54367.34</v>
+      </c>
+      <c r="F263">
+        <v>54888.71</v>
+      </c>
+      <c r="G263">
+        <v>54780.26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>269</v>
+      </c>
+      <c r="D264">
+        <v>55050.6</v>
+      </c>
+      <c r="E264">
+        <v>54780.26</v>
+      </c>
+      <c r="F264">
+        <v>55521.26</v>
+      </c>
+      <c r="G264">
+        <v>55437.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
